--- a/biology/Médecine/Loi_du_bon_samaritain/Loi_du_bon_samaritain.xlsx
+++ b/biology/Médecine/Loi_du_bon_samaritain/Loi_du_bon_samaritain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La loi du bon Samaritain (en anglais : Good Samaritan law) est, aux États-Unis, un ensemble de règles destinées à protéger tout citoyen (et notamment les secouristes bénévoles) portant assistance contre toute poursuite judiciaire possible. Cette appellation est identique pour plusieurs États, mais la loi s'y rapportant varie parfois.
 Certaines provinces du Canada (Québec, Ontario, Alberta, Colombie-Britannique, Nouvelle-Écosse) ont également adopté ces lois.
@@ -513,7 +525,9 @@
           <t>Caractéristiques des lois du bon samaritain</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Si les lois du bon Samaritain présentent des différences minimes, elles ont certains points communs :
 en l'absence d'obligation antérieure de soin (comme les relations parents-enfants ou médecin-patient), le « bon Samaritain » n'est pas tenu de prêter assistance. Il en va de même s'il n'est pas responsable de l'état de la victime ;
@@ -556,12 +570,14 @@
           <t>En droit québécois</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En droit québécois, l'article 2 de la Charte québécoise est l'une des principales dispositions législatives qui favorisent le secourisme. Cet article énonce que :
 « 2. Tout être humain dont la vie est en péril a droit au secours.
 Toute personne doit porter secours à celui dont la vie est en péril, personnellement ou en obtenant du secours, en lui apportant l’aide physique nécessaire et immédiate, à moins d’un risque pour elle ou pour les tiers ou d’un autre motif raisonnable. »
-Parmi les autres dispositions législatives qui favorisent le secourisme, il y a l'article 1471 du Code civil du Québec qui limite la responsabilité des secouristes seulement aux cas de faute lourde et intentionnelle, ainsi que la Loi visant à favoriser le civisme dans son ensemble[1].
+Parmi les autres dispositions législatives qui favorisent le secourisme, il y a l'article 1471 du Code civil du Québec qui limite la responsabilité des secouristes seulement aux cas de faute lourde et intentionnelle, ainsi que la Loi visant à favoriser le civisme dans son ensemble.
 </t>
         </is>
       </c>
